--- a/1_excel/sample_style.xlsx
+++ b/1_excel/sample_style.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -40,13 +40,21 @@
       <sz val="20"/>
       <u val="single"/>
     </font>
+    <font>
+      <color rgb="00FF0000"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -67,11 +75,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -440,7 +460,10 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -466,113 +489,113 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>85</v>
-      </c>
-      <c r="C2" t="n">
-        <v>63</v>
+      <c r="B2" s="4" t="n">
+        <v>64</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>78</v>
-      </c>
-      <c r="C3" t="n">
-        <v>56</v>
+      <c r="B3" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
-        <v>22</v>
-      </c>
-      <c r="C4" t="n">
-        <v>37</v>
+      <c r="B4" s="4" t="n">
+        <v>89</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
-        <v>97</v>
-      </c>
-      <c r="C5" t="n">
-        <v>99</v>
+      <c r="B5" s="4" t="n">
+        <v>47</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>77</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>86</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="n">
         <v>74</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>15</v>
-      </c>
-      <c r="C9" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>19</v>
-      </c>
-      <c r="C10" t="n">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>46</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
+      <c r="C11" s="4" t="n">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
